--- a/biology/Zoologie/Holcocephala_fusca/Holcocephala_fusca.xlsx
+++ b/biology/Zoologie/Holcocephala_fusca/Holcocephala_fusca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ogre à moucherons
-Holcocephala fusca, l'Ogre à moucherons[1], est une espèce de mouches de la famille des Asilidae[2],[3],[4],[5].
-Cette petite mouche, mesurant de cinq à sept millimètres de long, vit dans les champs herbeux se trouvant aux abords de forêts d'Amérique du Nord. Son surnom vient du fait qu'elle chasse surtout des moucherons, qu'elle parvient à attraper en plein vol en un clin d’œil grâce à ses pattes velues. Elle paralyse ensuite sa proie grâce à un poison contenu dans sa salive, qui va ensuite la liquéfier[1]. 
-Cette mouche possède deux baguettes derrière ses ailes qui lui servent de balanciers lui permettant de s'équilibrer en vol[1].
+Holcocephala fusca, l'Ogre à moucherons, est une espèce de mouches de la famille des Asilidae.
+Cette petite mouche, mesurant de cinq à sept millimètres de long, vit dans les champs herbeux se trouvant aux abords de forêts d'Amérique du Nord. Son surnom vient du fait qu'elle chasse surtout des moucherons, qu'elle parvient à attraper en plein vol en un clin d’œil grâce à ses pattes velues. Elle paralyse ensuite sa proie grâce à un poison contenu dans sa salive, qui va ensuite la liquéfier. 
+Cette mouche possède deux baguettes derrière ses ailes qui lui servent de balanciers lui permettant de s'équilibrer en vol.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Holcocephala fusca a été décrite en 1951 par l'entomologiste américain Stanley Willard Bromley (d) (1899-1954)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Holcocephala fusca a été décrite en 1951 par l'entomologiste américain Stanley Willard Bromley (d) (1899-1954).
 </t>
         </is>
       </c>
